--- a/Files/Madden24/IE/Test/RegressionValues.xlsx
+++ b/Files/Madden24/IE/Test/RegressionValues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/maddenstats/Files/Madden24/IE/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD4AE3F-54C6-481C-8198-ADD2465F648F}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7757C04B-8A32-40F9-9FD7-2A11F374B5D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="RegressionValues" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegressionValues!$A$1:$C$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegressionValues!$A$1:$C$147</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t>Position</t>
   </si>
@@ -37,13 +37,7 @@
     <t>QB</t>
   </si>
   <si>
-    <t>35-50</t>
-  </si>
-  <si>
     <t>HB</t>
-  </si>
-  <si>
-    <t>32-50</t>
   </si>
   <si>
     <t>WR</t>
@@ -53,9 +47,6 @@
   </si>
   <si>
     <t>LT</t>
-  </si>
-  <si>
-    <t>36-50</t>
   </si>
   <si>
     <t>LG</t>
@@ -104,9 +95,6 @@
   </si>
   <si>
     <t>FB</t>
-  </si>
-  <si>
-    <t>30-50</t>
   </si>
 </sst>
 </file>
@@ -974,13 +962,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,85 +988,85 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -1084,65 +1074,65 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -1150,54 +1140,54 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>33</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1205,109 +1195,109 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>33</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -1315,43 +1305,43 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
@@ -1359,43 +1349,43 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -1403,43 +1393,43 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>34</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -1447,43 +1437,43 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -1491,43 +1481,43 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B50" s="1">
+        <v>34</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -1535,43 +1525,43 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>3</v>
@@ -1579,43 +1569,43 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>34</v>
       </c>
       <c r="C58" s="1">
         <v>4</v>
@@ -1623,43 +1613,43 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B61" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -1667,43 +1657,43 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B66" s="1">
+        <v>34</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
@@ -1711,21 +1701,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B67" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
@@ -1733,43 +1723,43 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" s="1">
         <v>4</v>
@@ -1777,10 +1767,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73" s="1">
         <v>6</v>
@@ -1788,10 +1778,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B74" s="1">
+        <v>33</v>
       </c>
       <c r="C74" s="1">
         <v>4</v>
@@ -1799,21 +1789,21 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B75" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
@@ -1821,43 +1811,43 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B80" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
@@ -1865,10 +1855,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1">
         <v>6</v>
@@ -1876,10 +1866,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B82" s="1">
+        <v>33</v>
       </c>
       <c r="C82" s="1">
         <v>4</v>
@@ -1887,21 +1877,21 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B84" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1">
         <v>4</v>
@@ -1909,43 +1899,43 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B85" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B88" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
@@ -1953,10 +1943,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B89" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C89" s="1">
         <v>6</v>
@@ -1964,10 +1954,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B90" s="1">
+        <v>33</v>
       </c>
       <c r="C90" s="1">
         <v>4</v>
@@ -1975,65 +1965,65 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B91" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C92" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C93" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B94" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B96" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96" s="1">
         <v>4</v>
@@ -2041,21 +2031,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B97" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B98" s="1">
+        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
@@ -2063,65 +2053,65 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B99" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B100" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B102" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C102" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B103" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C103" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B104" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C104" s="1">
         <v>4</v>
@@ -2129,21 +2119,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B105" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B106" s="1">
+        <v>33</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
@@ -2151,65 +2141,65 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B107" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B108" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B109" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C109" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B110" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C111" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C112" s="1">
         <v>4</v>
@@ -2217,21 +2207,21 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B113" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B114" s="1">
+        <v>33</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>
@@ -2239,21 +2229,21 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B115" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B116" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C116" s="1">
         <v>4</v>
@@ -2261,54 +2251,54 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C117" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B118" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C118" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B119" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C119" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B120" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C120" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -2316,54 +2306,54 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B122" s="1">
+        <v>33</v>
       </c>
       <c r="C122" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B123" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B124" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C124" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B125" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C125" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C126" s="1">
         <v>4</v>
@@ -2371,10 +2361,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B127" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C127" s="1">
         <v>6</v>
@@ -2382,10 +2372,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B128" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C128" s="1">
         <v>4</v>
@@ -2393,10 +2383,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C129" s="1">
         <v>6</v>
@@ -2404,10 +2394,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B130" s="1">
+        <v>33</v>
       </c>
       <c r="C130" s="1">
         <v>4</v>
@@ -2415,43 +2405,43 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C131" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B132" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C132" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B133" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C133" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B134" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C134" s="1">
         <v>4</v>
@@ -2459,10 +2449,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B135" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C135" s="1">
         <v>6</v>
@@ -2470,10 +2460,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B136" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
@@ -2481,10 +2471,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B137" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C137" s="1">
         <v>6</v>
@@ -2492,10 +2482,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B138" s="1">
+        <v>33</v>
       </c>
       <c r="C138" s="1">
         <v>4</v>
@@ -2503,35 +2493,123 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B139" s="1">
+        <v>34</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B140" s="1">
+        <v>35</v>
       </c>
       <c r="C140" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B141" s="1">
+        <v>36</v>
       </c>
       <c r="C141" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="1">
+        <v>38</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="1">
+        <v>40</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="1">
+        <v>36</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" s="1">
+        <v>38</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="1">
+        <v>40</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="1">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="1">
+        <v>32</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="1">
+        <v>34</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
